--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,205 +67,208 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>ever</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>good</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4150943396226415</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3737373737373738</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8668730650154799</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3643410852713178</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -945,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1675675675675676</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
@@ -995,13 +998,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.726027397260274</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7056277056277056</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L10">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1050,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.6915254237288135</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L11">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1076,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.647887323943662</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1102,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6460674157303371</v>
+        <v>0.6508828250401284</v>
       </c>
       <c r="L13">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="M13">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1128,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6363636363636364</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1151,13 +1154,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6307692307692307</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1177,13 +1180,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1203,13 +1206,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1229,13 +1232,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.5961538461538461</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1255,13 +1258,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5771428571428572</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L19">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1281,13 +1284,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5641025641025641</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1307,13 +1310,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5568862275449101</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L21">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1333,13 +1336,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5555555555555556</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L22">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="M22">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1359,13 +1362,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.543859649122807</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1385,13 +1388,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5428571428571428</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1411,13 +1414,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5421686746987951</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1437,13 +1440,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5138888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1463,13 +1466,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1481,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1489,13 +1492,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.48</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1515,13 +1518,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4705882352941176</v>
+        <v>0.46875</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1541,13 +1544,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.463855421686747</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L30">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1567,13 +1570,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4605263157894737</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1593,13 +1596,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1619,13 +1622,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.443609022556391</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L33">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="M33">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1645,13 +1648,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.41</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1671,13 +1674,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4068627450980392</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L35">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M35">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1689,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1697,13 +1700,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1723,13 +1726,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3735408560311284</v>
+        <v>0.3726027397260274</v>
       </c>
       <c r="L37">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1749,13 +1752,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3589041095890411</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L38">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1767,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>468</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1775,13 +1778,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3513513513513514</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1793,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1801,13 +1804,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3381294964028777</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L40">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1819,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>92</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1827,13 +1830,13 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3308270676691729</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L41">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1845,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1853,13 +1856,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2962962962962963</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1871,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1879,13 +1882,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.291866028708134</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L43">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1897,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1905,13 +1908,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2871287128712871</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1923,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1931,13 +1934,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.271523178807947</v>
+        <v>0.2769396551724138</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1946,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>110</v>
+        <v>671</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1957,13 +1960,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2701829924650161</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L46">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1975,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>678</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1983,13 +1986,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2001,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2009,13 +2012,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2432432432432433</v>
+        <v>0.2237851662404092</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2027,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>84</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2035,25 +2038,25 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2410714285714286</v>
+        <v>0.2225165562913907</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="N49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>85</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2061,25 +2064,25 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2251655629139073</v>
+        <v>0.2038043478260869</v>
       </c>
       <c r="L50">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="M50">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>585</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2087,13 +2090,13 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2161125319693095</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L51">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>613</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2113,25 +2116,25 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.1951219512195122</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L52">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M52">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2139,13 +2142,13 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1943573667711599</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L53">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>257</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2165,13 +2168,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1768292682926829</v>
+        <v>0.168859649122807</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>135</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2191,25 +2194,25 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1674641148325359</v>
+        <v>0.1592039800995025</v>
       </c>
       <c r="L55">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>348</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2217,13 +2220,13 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.162280701754386</v>
+        <v>0.1581508515815085</v>
       </c>
       <c r="L56">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M56">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2235,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2243,13 +2246,13 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1610738255033557</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2261,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>125</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2269,25 +2272,25 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1518518518518518</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L58">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2295,13 +2298,13 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1476014760147601</v>
+        <v>0.1479713603818616</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2313,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>231</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2321,13 +2324,13 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.147239263803681</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2339,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>139</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2347,25 +2350,25 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1386363636363636</v>
+        <v>0.1434599156118143</v>
       </c>
       <c r="L61">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M61">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>379</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2373,25 +2376,25 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1343283582089552</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>174</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2399,13 +2402,13 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1305841924398626</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L63">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2417,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2425,25 +2428,25 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1299435028248588</v>
+        <v>0.108411214953271</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>154</v>
+        <v>954</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2451,25 +2454,25 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1289537712895377</v>
+        <v>0.09469153515064563</v>
       </c>
       <c r="L65">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M65">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>358</v>
+        <v>631</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2477,13 +2480,13 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1218487394957983</v>
+        <v>0.07868020304568528</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2495,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>209</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2503,25 +2506,25 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.09925093632958802</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="L67">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>962</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2529,25 +2532,25 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.08776978417266187</v>
+        <v>0.06457564575645756</v>
       </c>
       <c r="L68">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M68">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>634</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2555,25 +2558,25 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.0821917808219178</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2581,25 +2584,25 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.06839186691312385</v>
+        <v>0.05622837370242215</v>
       </c>
       <c r="L70">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>504</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2607,13 +2610,13 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.05892547660311959</v>
+        <v>0.05326876513317191</v>
       </c>
       <c r="L71">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="N71">
         <v>0.96</v>
@@ -2625,7 +2628,33 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1086</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72">
+        <v>0.02906208718626156</v>
+      </c>
+      <c r="L72">
+        <v>22</v>
+      </c>
+      <c r="M72">
+        <v>32</v>
+      </c>
+      <c r="N72">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O72">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
